--- a/artfynd/A 48520-2021 artfynd.xlsx
+++ b/artfynd/A 48520-2021 artfynd.xlsx
@@ -916,7 +916,7 @@
         <v>130977761</v>
       </c>
       <c r="B4" t="n">
-        <v>57830</v>
+        <v>57834</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
